--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7340486E-F794-41FC-A532-9ED0161B0EA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232D3058-AEDE-4BD4-A31A-5AA6558060DE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Iteration #3" sheetId="4" r:id="rId4"/>
     <sheet name="Iteration #4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -139,6 +139,36 @@
   </si>
   <si>
     <t>Le jeu est fonctionnel</t>
+  </si>
+  <si>
+    <t>Recherche sur les technologies disponibles</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>Expérimentations sur canvas android</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>Recherche sur musique</t>
+  </si>
+  <si>
+    <t>Apprentissage de kotlin</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Animation de base (translation, accélération)</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>Ma semaine de travail a été assez remplie. Je crois avoir très bien avancé. Ma première animation est faite, ma classe Note est faite, je devrai par la suite me concentrer sur la descente de notes en tâche asyncrone et le comptage de notes manquées.</t>
   </si>
 </sst>
 </file>
@@ -282,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1714,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1950,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,28 +2039,56 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>43179</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="23">
+        <v>43180</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="23">
+        <v>43181</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="23">
+        <v>43184</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="23">
+        <v>43185</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2142,7 +2201,9 @@
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
@@ -2151,7 +2212,9 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="21"/>
